--- a/Tables/Portman_serial_corr_test.xlsx
+++ b/Tables/Portman_serial_corr_test.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>40.2843830354728</v>
+        <v>55.7672006873748</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.286344233151589</v>
+        <v>0.10991259723174</v>
       </c>
     </row>
   </sheetData>
